--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,11 @@
           <t>Subject</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Marks</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -469,6 +474,67 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Desmond Onam</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Calcullus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Desmond Onam</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Dicrete</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Esther</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>76</t>
         </is>
       </c>
     </row>
